--- a/src/data/leftover.xlsx
+++ b/src/data/leftover.xlsx
@@ -15,19 +15,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>num_job</t>
+  </si>
+  <si>
+    <t>num_lot</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>num_sequence</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>completion_time</t>
+  </si>
+  <si>
+    <t>LN11003-W1</t>
+  </si>
+  <si>
+    <t>rob_slicing</t>
+  </si>
+  <si>
+    <t>tsk_1</t>
+  </si>
+  <si>
+    <t>seq_1</t>
+  </si>
+  <si>
+    <t>clean_1</t>
+  </si>
+  <si>
+    <t>cle_1</t>
+  </si>
+  <si>
+    <t>block_wedge</t>
+  </si>
+  <si>
+    <t>blo_1</t>
+  </si>
+  <si>
+    <t>wedge_polishing</t>
+  </si>
+  <si>
+    <t>pos_1</t>
+  </si>
+  <si>
+    <t>clean_2</t>
+  </si>
+  <si>
+    <t>New lot 1</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>rel_1</t>
+  </si>
+  <si>
+    <t>wafer_dicing</t>
+  </si>
+  <si>
+    <t>dic_1</t>
+  </si>
+  <si>
+    <t>New lot 0</t>
+  </si>
+  <si>
+    <t>New lot 4</t>
+  </si>
+  <si>
+    <t>New lot 5</t>
+  </si>
+  <si>
+    <t>LN11005-W</t>
+  </si>
+  <si>
+    <t>seq_2</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>VN#5</t>
+  </si>
+  <si>
+    <t>dic_2</t>
+  </si>
+  <si>
+    <t>LN13007-W1</t>
+  </si>
+  <si>
+    <t>LN16004-W1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,12 +155,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -349,14 +469,1230 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19005847</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>43400.09166666667</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>43400.17916666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19005847</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>43396.325</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>43396.32916666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19005847</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>43408.19583333333</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>43408.49583333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19005847</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>43412.225</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>43412.70416666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19005847</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>43412.7</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>43413.70416666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>43396.25</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>43396.7875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>43406.04583333333</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>43406.58333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>43404.9</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>43405.4375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>43405.4375</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>43406.04583333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19023254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>43397.94166666667</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>43398.18333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19023254</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>43398.675</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>43398.91666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19023254</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>43397.94166666667</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>43398.19583333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19023254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>43404.5625</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>43404.83333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19023254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>43408.79583333333</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>43409.09583333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>43396.4</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>43396.475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>43398.00416666667</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>43398.54166666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>43396.25</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>43396.325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>43398.18333333333</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>43398.22083333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19019116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>43396.4</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>43396.475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19019116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>43396.25</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>43396.7875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19019116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>43402.93333333333</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>43403.47083333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19019121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>43407.59583333333</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>43407.89583333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19015559</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>43404.65</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>43404.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19022180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>43398.19583333333</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>43398.675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19022180</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>43398.99166666667</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>43399.06666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19022180</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>43396.32916666667</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>43396.33333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19022180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>43399.20833333334</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>43399.24583333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>19022180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>43410.43333333333</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>43410.47083333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>19022180</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>43410.85</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>43411.10416666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14</v>
+      </c>
+      <c r="C31" t="n">
+        <v>19022181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>43396.29166666666</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>43396.29583333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14</v>
+      </c>
+      <c r="C32" t="n">
+        <v>19022181</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>43399.40833333333</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>43399.8875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B33" t="n">
+        <v>14</v>
+      </c>
+      <c r="C33" t="n">
+        <v>19022181</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>43400.12916666667</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>43400.16666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19022181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>43399.7625</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>43399.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>19022181</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>43410.15416666667</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>43410.39583333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19022181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>43412.225</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>43412.36666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>43396.26666666667</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>43396.27083333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>43407.29583333333</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>43407.59583333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>43407.89583333334</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>43408.19583333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B40" t="n">
+        <v>14</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>43400.16666666666</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>43400.20416666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>43413.31666666667</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>43413.5875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>43413.85833333333</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>43413.94583333333</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/data/leftover.xlsx
+++ b/src/data/leftover.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>num_job</t>
   </si>
@@ -68,7 +68,7 @@
     <t>clean_2</t>
   </si>
   <si>
-    <t>New lot 3</t>
+    <t>New lot 1</t>
   </si>
   <si>
     <t>release</t>
@@ -80,25 +80,31 @@
     <t>wafer_dicing</t>
   </si>
   <si>
+    <t>dic_1</t>
+  </si>
+  <si>
+    <t>New lot 0</t>
+  </si>
+  <si>
+    <t>New lot 4</t>
+  </si>
+  <si>
+    <t>New lot 5</t>
+  </si>
+  <si>
+    <t>LN11005-W</t>
+  </si>
+  <si>
+    <t>seq_2</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>VN#5</t>
+  </si>
+  <si>
     <t>dic_2</t>
-  </si>
-  <si>
-    <t>New lot 5</t>
-  </si>
-  <si>
-    <t>dic_1</t>
-  </si>
-  <si>
-    <t>LN11005-W</t>
-  </si>
-  <si>
-    <t>seq_2</t>
-  </si>
-  <si>
-    <t>coat</t>
-  </si>
-  <si>
-    <t>VN#5</t>
   </si>
   <si>
     <t>LN13007-W1</t>
@@ -453,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +489,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>19023251</v>
+        <v>19005847</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -506,13 +512,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19023251</v>
+        <v>19005847</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -529,13 +535,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>19023251</v>
+        <v>19005847</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -552,13 +558,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>19023251</v>
+        <v>19005847</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -575,13 +581,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>19023251</v>
+        <v>19005847</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -598,10 +604,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -621,10 +627,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="n">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -644,22 +650,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="n">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -667,22 +673,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="n">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -690,22 +696,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="n">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19023254</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -713,22 +719,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="n">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19023254</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -736,22 +742,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="n">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19023254</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -759,22 +765,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19023254</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -782,22 +788,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="n">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19023254</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -805,16 +811,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>19019116</v>
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -823,188 +829,188 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>19019116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>19019116</v>
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="n">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19019121</v>
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>19015559</v>
+        <v>19019116</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>19020037</v>
+        <v>19019116</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>19020037</v>
+        <v>19019116</v>
       </c>
       <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>19020037</v>
+        <v>19019121</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="n">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>19020037</v>
+        <v>19015559</v>
       </c>
       <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -1012,22 +1018,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="n">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="B25" t="n">
         <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>19020037</v>
+        <v>19022180</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -1035,22 +1041,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="n">
-        <v>352</v>
+        <v>70</v>
       </c>
       <c r="B26" t="n">
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>19020037</v>
+        <v>19022180</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="n">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B27" t="n">
         <v>14</v>
@@ -1067,13 +1073,13 @@
         <v>19022180</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -1081,7 +1087,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B28" t="n">
         <v>14</v>
@@ -1090,13 +1096,13 @@
         <v>19022180</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -1104,7 +1110,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="n">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="B29" t="n">
         <v>14</v>
@@ -1113,13 +1119,13 @@
         <v>19022180</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="B30" t="n">
         <v>14</v>
@@ -1136,13 +1142,13 @@
         <v>19022180</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -1150,22 +1156,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="n">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
         <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>19022180</v>
+        <v>19022181</v>
       </c>
       <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
         <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -1173,22 +1179,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="n">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B32" t="n">
         <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>19022180</v>
+        <v>19022181</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -1196,22 +1202,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B33" t="n">
         <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>19022178</v>
+        <v>19022181</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -1219,22 +1225,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B34" t="n">
         <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>19022178</v>
+        <v>19022181</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -1242,22 +1248,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="n">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B35" t="n">
         <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>19022178</v>
+        <v>19022181</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -1265,22 +1271,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="n">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="B36" t="n">
         <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>19022178</v>
+        <v>19022181</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
@@ -1288,22 +1294,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="n">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="B37" t="n">
         <v>14</v>
       </c>
       <c r="C37" t="n">
-        <v>19022178</v>
+        <v>19022179</v>
       </c>
       <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
         <v>29</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -1311,24 +1317,116 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="B38" t="n">
         <v>14</v>
       </c>
       <c r="C38" t="n">
-        <v>19022178</v>
+        <v>19022179</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B40" t="n">
+        <v>14</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19022179</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
         <v>16</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G42" t="s">
         <v>9</v>
       </c>
     </row>
